--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table38.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table38.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980BB30F-12EE-584E-B02A-4384EE3E94F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9C164B-BBC2-6F46-AE5C-5D952EA6A059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21260" yWindow="1920" windowWidth="24580" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26160" yWindow="1920" windowWidth="24580" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="58">
   <si>
     <t>Value</t>
   </si>
@@ -76,9 +76,6 @@
     <t xml:space="preserve">Spinv lolnster  </t>
   </si>
   <si>
-    <t xml:space="preserve">itoekfhh   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shark   </t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">All other     </t>
-  </si>
-  <si>
-    <t>All othrr</t>
   </si>
   <si>
     <t>Yellowfin tuna</t>
@@ -565,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -607,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>20573847</v>
@@ -621,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>8440071</v>
@@ -635,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>5455936</v>
@@ -649,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>3493359</v>
@@ -663,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>3418731</v>
@@ -677,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>435932</v>
@@ -691,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>312038</v>
@@ -705,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>254248</v>
@@ -719,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2">
         <v>141916</v>
@@ -733,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>38063</v>
@@ -747,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>27009</v>
@@ -761,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>24229</v>
@@ -775,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2">
         <v>19494</v>
@@ -789,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
         <v>9988</v>
@@ -803,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>230</v>
@@ -817,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
         <v>42645091</v>
@@ -828,7 +822,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4">
         <f>SUM(C4:C18)-C19</f>
@@ -844,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2">
         <v>166008</v>
@@ -858,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
         <v>119168</v>
@@ -872,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
         <v>98651</v>
@@ -886,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2">
         <v>95116</v>
@@ -900,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
         <v>62264</v>
@@ -914,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>60292</v>
@@ -928,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
         <v>53852</v>
@@ -942,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>52175</v>
@@ -956,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>44482</v>
@@ -970,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>37443</v>
@@ -984,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
         <v>27577</v>
@@ -998,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
         <v>27186</v>
@@ -1012,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2">
         <v>18555</v>
@@ -1026,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
         <v>17094</v>
@@ -1040,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
         <v>16334</v>
@@ -1054,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2">
         <v>13673</v>
@@ -1068,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2">
         <v>13485</v>
@@ -1082,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
         <v>10287</v>
@@ -1096,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2">
         <v>6841</v>
@@ -1110,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
         <v>6167</v>
@@ -1124,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2">
         <v>6076</v>
@@ -1138,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2">
         <v>5577</v>
@@ -1152,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2">
         <v>21647</v>
@@ -1166,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2">
         <v>979950</v>
@@ -1177,7 +1171,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="4">
         <f>SUM(C21:C43)-C44</f>
@@ -1193,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2">
         <v>305921</v>
@@ -1207,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2">
         <v>40284</v>
@@ -1221,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" s="2">
         <v>13349</v>
@@ -1235,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C49" s="2">
         <v>91423</v>
@@ -1260,7 +1254,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4">
         <f>SUM(C46:C49)-C50</f>
@@ -1276,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2">
         <v>254839</v>
@@ -1304,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2">
         <v>27648</v>
@@ -1318,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2">
         <v>25954</v>
@@ -1332,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2">
         <v>18515</v>
@@ -1346,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2">
         <v>15524</v>
@@ -1360,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" s="2">
         <v>2198</v>
@@ -1374,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C59" s="2">
         <v>379055</v>
@@ -1385,7 +1379,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="4">
         <f>SUM(C52:C58)-C59</f>
@@ -1401,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C61" s="2">
         <v>111168</v>
@@ -1415,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C62" s="2">
         <v>86359</v>
@@ -1429,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63" s="2">
         <v>33035</v>
@@ -1443,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2">
         <v>32222</v>
@@ -1457,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2">
         <v>18473</v>
@@ -1471,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2">
         <v>15407</v>
@@ -1485,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2">
         <v>8203</v>
@@ -1499,7 +1493,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68" s="2">
         <v>7678</v>
@@ -1513,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C69" s="2">
         <v>6971</v>
@@ -1527,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2">
         <v>5608</v>
@@ -1541,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" s="2">
         <v>7454</v>
@@ -1555,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2">
         <v>332578</v>
@@ -1566,7 +1560,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C73" s="4">
         <f>SUM(C61:C71)-C72</f>
@@ -1582,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C74" s="2">
         <v>103635</v>
@@ -1596,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C75" s="2">
         <v>66191</v>
@@ -1610,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C76" s="2">
         <v>22310</v>
@@ -1624,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2">
         <v>16114</v>
@@ -1638,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2">
         <v>7749</v>
@@ -1652,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" s="2">
         <v>7584</v>
@@ -1666,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2">
         <v>223583</v>
@@ -1677,7 +1671,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C81" s="4">
         <f>SUM(C74:C79)-C80</f>
@@ -1693,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2">
         <v>15581</v>
@@ -1707,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C83" s="2">
         <v>15514</v>
@@ -1721,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C84" s="2">
         <v>8718</v>
@@ -1735,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C85" s="2">
         <v>7702</v>
@@ -1749,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="2">
         <v>9409</v>
@@ -1763,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2">
         <v>56924</v>
@@ -1774,7 +1768,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C88" s="4">
         <f>SUM(C82:C86)-C87</f>
@@ -1790,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2">
         <v>8312</v>
@@ -1804,7 +1798,7 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2">
         <v>7842</v>
@@ -1818,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="2">
         <v>2067</v>
@@ -1832,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2">
         <v>18221</v>
@@ -1843,7 +1837,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B93" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C93" s="4">
         <f>SUM(C89:C91)-C92</f>
@@ -1859,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C94" s="2">
         <v>10319</v>
@@ -1873,7 +1867,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95" s="2">
         <v>105</v>
@@ -1887,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2">
         <v>10424</v>
@@ -1898,7 +1892,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C97" s="4">
         <f>SUM(C94:C95)-C96</f>
@@ -1914,7 +1908,7 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C98" s="2">
         <v>10177</v>
@@ -1928,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2">
         <v>10177</v>
@@ -1939,7 +1933,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B100" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -1949,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" s="2">
         <v>7139</v>
@@ -1963,7 +1957,7 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2">
         <v>7139</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table38.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table38.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9C164B-BBC2-6F46-AE5C-5D952EA6A059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8AA95B-675C-3441-A564-0376104095BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26160" yWindow="1920" windowWidth="24580" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23760" yWindow="1880" windowWidth="24580" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
   <si>
     <t>Value</t>
   </si>
@@ -559,14 +559,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -586,8 +586,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>45114119</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table38.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8AA95B-675C-3441-A564-0376104095BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5DDE82-139B-844B-B1A8-75C399793027}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23760" yWindow="1880" windowWidth="24580" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1966,7 +1966,7 @@
         <v>7139</v>
       </c>
       <c r="D102" s="2">
-        <v>35825</v>
+        <v>35625</v>
       </c>
     </row>
   </sheetData>
